--- a/Message-Blaster/Contacts.xlsx
+++ b/Message-Blaster/Contacts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Mini-Python\whatsapp-sender\messageBlaster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Message-Blaster\Message-Blaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1453241F-7C0E-41C9-8FFC-C738EFE7725A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4795A5-779B-4C43-843F-A9FFAEADE485}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="8325" xr2:uid="{77532ECA-40A2-402D-8C29-1491540781EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{77532ECA-40A2-402D-8C29-1491540781EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Sukhbir Uppal</t>
   </si>
   <si>
     <t>Sapna Uppal</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -383,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8A875D-1118-44E7-8624-4842914A349F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,17 +405,25 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>9819719688</v>
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>9819719688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>9820597311</v>
       </c>
     </row>

--- a/Message-Blaster/Contacts.xlsx
+++ b/Message-Blaster/Contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Message-Blaster\Message-Blaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4795A5-779B-4C43-843F-A9FFAEADE485}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E794CD-0F7F-4F1D-8FB3-1C7211EC61F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{77532ECA-40A2-402D-8C29-1491540781EF}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
